--- a/mbs-perturbation/bottleneck/decisionTree/nearmiss/bottleneck-decisionTree-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/decisionTree/nearmiss/bottleneck-decisionTree-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.1816608996539793</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6206896551724137</v>
+        <v>0.07407407407407408</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6885964912280702</v>
+        <v>0.458477508650519</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7573099415204678</v>
+        <v>0.4013840830449827</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6929824561403509</v>
+        <v>0.4394463667820069</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727272727272728</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5524691358024691</v>
+        <v>0.4671280276816609</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7594346829640948</v>
+        <v>0.31375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.575438596491228</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6157685226650744</v>
+        <v>0.1594860166288738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7066926575698507</v>
+        <v>0.3896193771626298</v>
       </c>
     </row>
   </sheetData>
